--- a/data/final/price decline since release date - Apple Watch.xlsx
+++ b/data/final/price decline since release date - Apple Watch.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E604"/>
+  <dimension ref="A1:E608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4291,8 +4291,11 @@
       <c r="C234">
         <v>0.9759401845370668</v>
       </c>
+      <c r="D234">
+        <v>0.9431256713211601</v>
+      </c>
       <c r="E234">
-        <v>0.9103831090511776</v>
+        <v>0.9212972964745051</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4305,8 +4308,11 @@
       <c r="C235">
         <v>0.9757811008590519</v>
       </c>
+      <c r="D235">
+        <v>0.9463659147869674</v>
+      </c>
       <c r="E235">
-        <v>0.9103035672121702</v>
+        <v>0.9223243497371026</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4319,8 +4325,11 @@
       <c r="C236">
         <v>0.9756411072223992</v>
       </c>
+      <c r="D236">
+        <v>0.9496240601503759</v>
+      </c>
       <c r="E236">
-        <v>0.9161873157888498</v>
+        <v>0.9273328972426919</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4333,8 +4342,11 @@
       <c r="C237">
         <v>0.9769137766465162</v>
       </c>
+      <c r="D237">
+        <v>0.9497135696383818</v>
+      </c>
       <c r="E237">
-        <v>0.9168236505009084</v>
+        <v>0.9277869568800662</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -9469,10 +9481,66 @@
         <v>0.6102865329512891</v>
       </c>
       <c r="C604">
-        <v>0.8240311804008904</v>
+        <v>0.8176614699331844</v>
       </c>
       <c r="E604">
-        <v>0.7171588566760898</v>
+        <v>0.7139740014422368</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>0.6102865329512891</v>
+      </c>
+      <c r="C605">
+        <v>0.8112917594654786</v>
+      </c>
+      <c r="E605">
+        <v>0.7107891462083838</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>0.6102865329512891</v>
+      </c>
+      <c r="C606">
+        <v>0.8049220489977726</v>
+      </c>
+      <c r="E606">
+        <v>0.7076042909745308</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>0.6102865329512891</v>
+      </c>
+      <c r="C607">
+        <v>0.7985523385300668</v>
+      </c>
+      <c r="E607">
+        <v>0.7044194357406779</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>0.6102865329512891</v>
+      </c>
+      <c r="C608">
+        <v>0.7921826280623608</v>
+      </c>
+      <c r="E608">
+        <v>0.701234580506825</v>
       </c>
     </row>
   </sheetData>
